--- a/data/georgia_census/qvemo-qartli/dmanisi/population_total.xlsx
+++ b/data/georgia_census/qvemo-qartli/dmanisi/population_total.xlsx
@@ -1351,13 +1351,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{766A3E54-AFE8-4A9C-A9BA-AF87EA002F01}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12005C4C-3063-455E-B0E1-B16373EBFF11}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D2641FA-58AF-4A24-8710-A8AACE07AF5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E0D1441-D80D-416A-ABAE-F62BD53BCA72}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49494656-A1DE-4230-9EB1-FE2BAF685B02}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{494B9648-1B55-4F30-BCA5-6EF8CDDFA511}"/>
 </file>